--- a/artfynd/A 17648-2024 artfynd.xlsx
+++ b/artfynd/A 17648-2024 artfynd.xlsx
@@ -1031,7 +1031,7 @@
         <v>121524103</v>
       </c>
       <c r="B5" t="n">
-        <v>56763</v>
+        <v>56767</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
